--- a/biology/Botanique/Cirrhopetalum_macraei/Cirrhopetalum_macraei.xlsx
+++ b/biology/Botanique/Cirrhopetalum_macraei/Cirrhopetalum_macraei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cirrhopetalum macraei ou Bulbophyllum macraei est une espèce de plante de la famille des orchidées. Elle est litophyte ou épiphyte et originaire d'Asie.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une orchidée de grande taille, dont la croissance est soit litophyte ou occasionnellement épiphyte. Elle est dotée de pseudo-bulbes très rapprochés et d'une seule feuille. Sa floraison est apicale et se produit durant l'été dans une mince feuille. Une plante donne deux à trois fleurs. Cette espèce a besoin de températures chaudes avec une humidité élevée, une bonne circulation de l'air, à la fois de l'ombre et de la lumière et beaucoup d'eau tout au long de l'année[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une orchidée de grande taille, dont la croissance est soit litophyte ou occasionnellement épiphyte. Elle est dotée de pseudo-bulbes très rapprochés et d'une seule feuille. Sa floraison est apicale et se produit durant l'été dans une mince feuille. Une plante donne deux à trois fleurs. Cette espèce a besoin de températures chaudes avec une humidité élevée, une bonne circulation de l'air, à la fois de l'ombre et de la lumière et beaucoup d'eau tout au long de l'année.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se trouve au Sri Lanka, au Japon, à Taiwan, au Vietnam et en Inde à des altitudes comprises entre 300 et 1 500 m, dans des roches calcaires couvertes de mousse ou occasionnellement sur des arbres dans les bases des troncs.
 </t>
